--- a/전처리_정규화__1인당자가용_대졸자비율/대졸이상비율.xlsx
+++ b/전처리_정규화__1인당자가용_대졸자비율/대졸이상비율.xlsx
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.5229647289811373</v>
+        <v>4.041301451511115</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.3015035355693256</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.5671899400016438</v>
+        <v>3.845565874907537</v>
       </c>
       <c r="C3">
-        <v>0.2755257410635349</v>
+        <v>0.2564619685242195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.5946442018072289</v>
+        <v>4.663638930722891</v>
       </c>
       <c r="C4">
-        <v>0.4465674535796984</v>
+        <v>0.4447123266383642</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.6085071081111656</v>
+        <v>4.410083336475735</v>
       </c>
       <c r="C5">
-        <v>0.5329341988037164</v>
+        <v>0.386365543206781</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>0.6188081598797273</v>
+        <v>3.501412685658</v>
       </c>
       <c r="C6">
-        <v>0.5971103747172867</v>
+        <v>0.1772673774521807</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>0.5338657470429864</v>
+        <v>3.389781286868137</v>
       </c>
       <c r="C7">
-        <v>0.06791400222930008</v>
+        <v>0.1515793895034395</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.5731431500859443</v>
+        <v>3.376767889991255</v>
       </c>
       <c r="C8">
-        <v>0.312614600163003</v>
+        <v>0.1485848200026596</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.5554855671797119</v>
+        <v>4.156022347592704</v>
       </c>
       <c r="C9">
-        <v>0.2026067900617775</v>
+        <v>0.3279024612117432</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.5369864165860634</v>
+        <v>3.471971066907776</v>
       </c>
       <c r="C10">
-        <v>0.08735596233825255</v>
+        <v>0.1704924381802034</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.6013968036334033</v>
+        <v>4.39470414327949</v>
       </c>
       <c r="C11">
-        <v>0.4886365716083495</v>
+        <v>0.3828265699988023</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>0.609126272519105</v>
+        <v>5.158992468342207</v>
       </c>
       <c r="C12">
-        <v>0.5367916305355529</v>
+        <v>0.5587002891889753</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.6151103834372029</v>
+        <v>4.449323967465935</v>
       </c>
       <c r="C13">
-        <v>0.5740730036996247</v>
+        <v>0.3953953759142861</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.5682459677419355</v>
+        <v>4.035450268817204</v>
       </c>
       <c r="C14">
-        <v>0.2821048577938678</v>
+        <v>0.3001570944053124</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.6231918238993711</v>
+        <v>4.2479035639413</v>
       </c>
       <c r="C15">
-        <v>0.6244208668487066</v>
+        <v>0.3490456485574591</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>0.6195700994546038</v>
+        <v>5.625537375681745</v>
       </c>
       <c r="C16">
-        <v>0.6018573043795592</v>
+        <v>0.6660589722047152</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>0.6699560788711335</v>
+        <v>4.223549201009251</v>
       </c>
       <c r="C17">
-        <v>0.9157650053855355</v>
+        <v>0.3434413599049859</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>0.6419332676165725</v>
+        <v>4.306389461421274</v>
       </c>
       <c r="C18">
-        <v>0.7411811953949765</v>
+        <v>0.3625040934566849</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>0.6174730839610196</v>
+        <v>3.047576492616707</v>
       </c>
       <c r="C19">
-        <v>0.5887927709480828</v>
+        <v>0.07283315210046983</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>0.6834768134411818</v>
+        <v>4.295144217014747</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.3599164012309584</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>0.6378026994839222</v>
+        <v>4.130979555379119</v>
       </c>
       <c r="C21">
-        <v>0.7154475059562941</v>
+        <v>0.322139755095372</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>0.6328164151678825</v>
+        <v>2.731067988195334</v>
       </c>
       <c r="C22">
-        <v>0.6843826529091644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -708,10 +708,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>0.6279765820286805</v>
+        <v>7.076733324562557</v>
       </c>
       <c r="C23">
-        <v>0.6542301995566148</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>0.6130249777628194</v>
+        <v>6.481621270764719</v>
       </c>
       <c r="C24">
-        <v>0.5610808001443675</v>
+        <v>0.8630561702905257</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>0.6648256880733945</v>
+        <v>5.649247706422019</v>
       </c>
       <c r="C25">
-        <v>0.8838023602364339</v>
+        <v>0.6715150598012107</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>0.633057194734453</v>
+        <v>5.06630163413527</v>
       </c>
       <c r="C26">
-        <v>0.685882724180312</v>
+        <v>0.5373707971475051</v>
       </c>
     </row>
   </sheetData>

--- a/전처리_정규화__1인당자가용_대졸자비율/대졸이상비율.xlsx
+++ b/전처리_정규화__1인당자가용_대졸자비율/대졸이상비율.xlsx
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4.041301451511115</v>
+        <v>0.3624808171274749</v>
       </c>
       <c r="C2">
-        <v>0.3015035355693256</v>
+        <v>0.4122070312782327</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>3.845565874907537</v>
+        <v>0.3475247892449957</v>
       </c>
       <c r="C3">
-        <v>0.2564619685242195</v>
+        <v>0.3489760694792755</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>4.663638930722891</v>
+        <v>0.4050481309652762</v>
       </c>
       <c r="C4">
-        <v>0.4447123266383642</v>
+        <v>0.5921727425159995</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>4.410083336475735</v>
+        <v>0.3891815444002595</v>
       </c>
       <c r="C5">
-        <v>0.386365543206781</v>
+        <v>0.5250921288092195</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>3.501412685658</v>
+        <v>0.3751114245964416</v>
       </c>
       <c r="C6">
-        <v>0.1772673774521807</v>
+        <v>0.465606601314035</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>3.389781286868137</v>
+        <v>0.3138700443119878</v>
       </c>
       <c r="C7">
-        <v>0.1515793895034395</v>
+        <v>0.2066908378700438</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>3.376767889991255</v>
+        <v>0.2802493730635046</v>
       </c>
       <c r="C8">
-        <v>0.1485848200026596</v>
+        <v>0.06454966268150505</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.156022347592704</v>
+        <v>0.3394496438924877</v>
       </c>
       <c r="C9">
-        <v>0.3279024612117432</v>
+        <v>0.31483604170468</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>3.471971066907776</v>
+        <v>0.2649814326842529</v>
       </c>
       <c r="C10">
-        <v>0.1704924381802034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>4.39470414327949</v>
+        <v>0.3133177134722829</v>
       </c>
       <c r="C11">
-        <v>0.3828265699988023</v>
+        <v>0.2043556984533354</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -587,10 +587,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>5.158992468342207</v>
+        <v>0.35481336996615</v>
       </c>
       <c r="C12">
-        <v>0.5587002891889753</v>
+        <v>0.3797906662939698</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -598,10 +598,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>4.449323967465935</v>
+        <v>0.3480827116599145</v>
       </c>
       <c r="C13">
-        <v>0.3953953759142861</v>
+        <v>0.3513348489079924</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -609,10 +609,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>4.035450268817204</v>
+        <v>0.3718664073918105</v>
       </c>
       <c r="C14">
-        <v>0.3001570944053124</v>
+        <v>0.4518873464079003</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -620,10 +620,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>4.2479035639413</v>
+        <v>0.4245033494126089</v>
       </c>
       <c r="C15">
-        <v>0.3490456485574591</v>
+        <v>0.6744253422102534</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -631,10 +631,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>5.625537375681745</v>
+        <v>0.3830390514241526</v>
       </c>
       <c r="C16">
-        <v>0.6660589722047152</v>
+        <v>0.4991229515801786</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -642,10 +642,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>4.223549201009251</v>
+        <v>0.3856982664306768</v>
       </c>
       <c r="C17">
-        <v>0.3434413599049859</v>
+        <v>0.5103655571579421</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -653,10 +653,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>4.306389461421274</v>
+        <v>0.3333387284733912</v>
       </c>
       <c r="C18">
-        <v>0.3625040934566849</v>
+        <v>0.2890003677906047</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -664,10 +664,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>3.047576492616707</v>
+        <v>0.2889624145096536</v>
       </c>
       <c r="C19">
-        <v>0.07283315210046983</v>
+        <v>0.1013865818931625</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -675,10 +675,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>4.295144217014747</v>
+        <v>0.4053936622259535</v>
       </c>
       <c r="C20">
-        <v>0.3599164012309584</v>
+        <v>0.5936335765098856</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -686,10 +686,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>4.130979555379119</v>
+        <v>0.4146080902054924</v>
       </c>
       <c r="C21">
-        <v>0.322139755095372</v>
+        <v>0.632590253252647</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -697,10 +697,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>2.731067988195334</v>
+        <v>0.3848329648903596</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.5067072429938936</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -708,7 +708,7 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>7.076733324562557</v>
+        <v>0.5015115669250043</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -719,10 +719,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>6.481621270764719</v>
+        <v>0.4955675437226016</v>
       </c>
       <c r="C24">
-        <v>0.8630561702905257</v>
+        <v>0.9748699115168445</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -730,10 +730,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>5.649247706422019</v>
+        <v>0.4568513456967085</v>
       </c>
       <c r="C25">
-        <v>0.6715150598012107</v>
+        <v>0.8111859134919421</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -741,10 +741,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>5.06630163413527</v>
+        <v>0.3848658830425993</v>
       </c>
       <c r="C26">
-        <v>0.5373707971475051</v>
+        <v>0.5068464140654586</v>
       </c>
     </row>
   </sheetData>

--- a/전처리_정규화__1인당자가용_대졸자비율/대졸이상비율.xlsx
+++ b/전처리_정규화__1인당자가용_대졸자비율/대졸이상비율.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
-    <t>서울</t>
+    <t>대졸이상비율</t>
   </si>
   <si>
     <t>정규화</t>
